--- a/pred_ohlcv/54_21/2020-01-22 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 IPX ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>399431.705918666</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>257573.3836010482</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>251960.2164010482</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>252659.9961010482</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>270890.5749010482</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>268736.2730010482</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>272235.1715010482</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>299140.1271010482</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>318291.6033010482</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>311265.7349010482</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>322043.3698462332</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>354696.1263010481</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>399162.2091010481</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>304871.6827010482</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>285960.6444010482</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>285960.6444010482</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>274628.3053010482</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>271774.5803010482</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>269675.2412010483</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>340212.2247010482</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>340212.2247010482</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>365110.4135010482</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>365110.4135010482</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>375689.5261010482</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>369702.9893010482</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>363885.8705010482</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>368393.2640010482</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>385033.0432010482</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>325188.1291010482</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>306890.3806010482</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>282849.0051010482</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>287124.6560010482</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>284237.5167010482</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>265313.6784010482</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>226397.8471010482</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-712640.4381081138</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-881875.9211176721</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-873252.0687176721</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-867606.3914176722</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-876073.7687176722</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-874770.8224176723</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-859203.3366176722</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-854182.9464176722</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-856295.2501176723</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-895483.7176176723</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-897951.5361176723</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-897951.5361176723</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-949174.7767176724</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-951364.9477176723</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-953924.8013176724</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-975190.6276176723</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-970944.8488176723</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-978977.7880176724</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-973354.4241176724</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-973354.4241176724</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-979843.1308176724</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-979843.1308176724</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-981955.5546176723</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-1027117.856917672</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-1023109.642717672</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-1135070.393217672</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-1136469.952617672</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-1150248.262517672</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-1150248.262517672</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-1147449.143717672</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-1147449.143717672</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-1148148.923417672</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-1320823.204436915</v>
       </c>
       <c r="H1029">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-1317331.591036915</v>
       </c>
       <c r="H1030">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-1317331.591036915</v>
       </c>
       <c r="H1031">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-1319505.374436915</v>
       </c>
       <c r="H1032">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-1325417.399736915</v>
       </c>
       <c r="H1033">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-1325417.399736915</v>
       </c>
       <c r="H1034">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-1337047.237936915</v>
       </c>
       <c r="H1035">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-1340900.974436915</v>
       </c>
       <c r="H1036">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-1340900.974436915</v>
       </c>
       <c r="H1037">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-1328855.254836915</v>
       </c>
       <c r="H1038">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-1349842.848536915</v>
       </c>
       <c r="H1039">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-1391789.455536915</v>
       </c>
       <c r="H1040">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-1423990.281436915</v>
       </c>
       <c r="H1041">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-1426105.674236915</v>
       </c>
       <c r="H1042">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-1430089.991736915</v>
       </c>
       <c r="H1043">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-1305529.940036915</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-1472779.258836915</v>
       </c>
       <c r="H1176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-1474878.597936915</v>
       </c>
       <c r="H1177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-1403496.404290565</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-1403496.404290565</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-1399297.726090565</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-1281358.710636914</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-1280658.930936914</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-1284152.674036914</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-1279948.582836914</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-1282747.701636914</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-1282747.701636914</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-1270569.045936914</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-1383406.602436914</v>
       </c>
       <c r="H1292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>-1379907.703936914</v>
       </c>
       <c r="H1293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>-1377763.676236914</v>
       </c>
       <c r="H1294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>-1380562.795036914</v>
       </c>
       <c r="H1295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-1382662.134136914</v>
       </c>
       <c r="H1296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-1382662.134136914</v>
       </c>
       <c r="H1297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-1379811.839436914</v>
       </c>
       <c r="H1298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>-1379811.839436914</v>
       </c>
       <c r="H1299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-1379811.839436914</v>
       </c>
       <c r="H1300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-1384010.517636914</v>
       </c>
       <c r="H1301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-1381917.154936914</v>
       </c>
       <c r="H1302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-1379109.673236914</v>
       </c>
       <c r="H1304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-1364856.694336914</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-1365556.474036915</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>-1362057.575536915</v>
       </c>
       <c r="H1310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>-1362057.575536915</v>
       </c>
       <c r="H1311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>-1362057.575536915</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>-1362757.355236915</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-1359245.876036915</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-1361241.428336915</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-1350527.319536915</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-1351227.099236915</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-1349127.760136915</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-1335607.641336915</v>
       </c>
       <c r="H1319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-1311577.691536915</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-1295569.233636915</v>
       </c>
       <c r="H1321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>-1299944.546236915</v>
       </c>
       <c r="H1322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-1302043.885336915</v>
       </c>
       <c r="H1323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-1300644.325936915</v>
       </c>
       <c r="H1324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-1285935.634236915</v>
       </c>
       <c r="H1325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-1290181.438336915</v>
       </c>
       <c r="H1326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-1290181.438336915</v>
       </c>
       <c r="H1327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-1276972.099236915</v>
       </c>
       <c r="H1328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 IPX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>365678.636118666</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>385305.2970186661</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>399431.705918666</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>257573.3836010482</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>251960.2164010482</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>252659.9961010482</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>270890.5749010482</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>268736.2730010482</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>272235.1715010482</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>299140.1271010482</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>318291.6033010482</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>311265.7349010482</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>322043.3698462332</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>354696.1263010481</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>399162.2091010481</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>304871.6827010482</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>285960.6444010482</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>285960.6444010482</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>274628.3053010482</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>271774.5803010482</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>269675.2412010483</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>340212.2247010482</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>340212.2247010482</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>365110.4135010482</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>365110.4135010482</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>375689.5261010482</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>369702.9893010482</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>363885.8705010482</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>368393.2640010482</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>385033.0432010482</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>325188.1291010482</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>306890.3806010482</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>282849.0051010482</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>287124.6560010482</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>284237.5167010482</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>265313.6784010482</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>226397.8471010482</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-712640.4381081138</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-881875.9211176721</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-873252.0687176721</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-867606.3914176722</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-876073.7687176722</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-874770.8224176723</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-859203.3366176722</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-854182.9464176722</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-856295.2501176723</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-895483.7176176723</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-897951.5361176723</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-897951.5361176723</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-949174.7767176724</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-951364.9477176723</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-953924.8013176724</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-975190.6276176723</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-970944.8488176723</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-978977.7880176724</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-973354.4241176724</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-973354.4241176724</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-979843.1308176724</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-979843.1308176724</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-981955.5546176723</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-1027117.856917672</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-1023109.642717672</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-1135070.393217672</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-1136469.952617672</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-1150248.262517672</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-1150248.262517672</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-1147449.143717672</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-1147449.143717672</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-1148148.923417672</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-1349842.848536915</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-1391789.455536915</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-1423990.281436915</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-1426105.674236915</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-1430089.991736915</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-1319218.498636915</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-1327236.914436915</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-1305529.940036915</v>
       </c>
       <c r="H1139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-1472779.258836915</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-1474878.597936915</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-1282747.701636914</v>
       </c>
       <c r="H1264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-1270569.045936914</v>
       </c>
       <c r="H1265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>-1375619.798736914</v>
       </c>
       <c r="H1290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-1377719.137836914</v>
       </c>
       <c r="H1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-1383406.602436914</v>
       </c>
       <c r="H1292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>-1379907.703936914</v>
       </c>
       <c r="H1293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>-1377763.676236914</v>
       </c>
       <c r="H1294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>-1380562.795036914</v>
       </c>
       <c r="H1295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-1382662.134136914</v>
       </c>
       <c r="H1296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-1382662.134136914</v>
       </c>
       <c r="H1297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-1379811.839436914</v>
       </c>
       <c r="H1298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>-1379811.839436914</v>
       </c>
       <c r="H1299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-1379811.839436914</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-1384010.517636914</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-1381917.154936914</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-1379109.673236914</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>-1299944.546236915</v>
       </c>
       <c r="H1322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-1302043.885336915</v>
       </c>
       <c r="H1323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-1300644.325936915</v>
       </c>
       <c r="H1324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-1285935.634236915</v>
       </c>
       <c r="H1325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-1290181.438336915</v>
       </c>
       <c r="H1326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-1290181.438336915</v>
       </c>
       <c r="H1327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-1276972.099236915</v>
       </c>
       <c r="H1328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
